--- a/Model_setup/ISONE_data_file/Scenarios/Renewable_timeseries/On_Shore_Wind_ISO.xlsx
+++ b/Model_setup/ISONE_data_file/Scenarios/Renewable_timeseries/On_Shore_Wind_ISO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Desktop\ISONE_SANDY\ISONE_UCED\Model_setup\ISONE_data_file\Scenarios\Renewable_timeseries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Downloads\NREL_ISO_10_4_2021\NREL_ISO_9_24_2021\ISO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10455,7 +10455,7 @@
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20483,7 +20483,7 @@
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
